--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\ScriptGenerator-Sequelize\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ScriptGenerator-Sequelize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D094090-ACA8-4599-A938-344B638229DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0E0209-AC3F-423E-9510-99613ECA2E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A03F2A57-A576-479E-839F-2DB80B724AE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A03F2A57-A576-479E-839F-2DB80B724AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="SYS_Z000" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>users</t>
   </si>
@@ -44,12 +44,6 @@
     <t>roles</t>
   </si>
   <si>
-    <t>model roles</t>
-  </si>
-  <si>
-    <t>model group</t>
-  </si>
-  <si>
     <t>LOGIN</t>
   </si>
   <si>
@@ -126,6 +120,9 @@
   </si>
   <si>
     <t>PROPERTY (Str)</t>
+  </si>
+  <si>
+    <t>functionality</t>
   </si>
 </sst>
 </file>
@@ -276,10 +273,104 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -306,6 +397,30 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -338,6 +453,30 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -369,148 +508,6 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -525,55 +522,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAA26960-2024-4096-B994-0098FD3A4DF7}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="22" headerRowBorderDxfId="1">
-  <autoFilter ref="A1:G4" xr:uid="{201412A3-81F4-45A6-A2E3-4E26BB4D8EAE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAA26960-2024-4096-B994-0098FD3A4DF7}" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28">
+  <autoFilter ref="A1:G5" xr:uid="{201412A3-81F4-45A6-A2E3-4E26BB4D8EAE}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{45391B0E-15B7-4B58-AA9E-3E54BA39783F}" name="ANCESTOR (Int)" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{D26FA0C5-DF77-471A-BC35-D3A6A15941D8}" name="CODE (Int)" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{1432C61C-C7BD-4F7D-9D50-E7BBD4A6F276}" name="PARENT (Int)" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{7E83A297-5783-4D8C-B136-8CEDA0A6EBF0}" name="ORDER (Int)" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{2CC8B113-DED3-4FC6-98B0-C528E0A6258C}" name="VALUE (Str)" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{69D924E8-25EF-459B-BFD4-9C59DCCDC98D}" name="DESCRIPTION (Str)" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{BE5EF3EC-5D3F-477E-B790-71B1D6DFB9BF}" name="PROPERTY (Str)" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{45391B0E-15B7-4B58-AA9E-3E54BA39783F}" name="ANCESTOR (Int)" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{D26FA0C5-DF77-471A-BC35-D3A6A15941D8}" name="CODE (Int)" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{1432C61C-C7BD-4F7D-9D50-E7BBD4A6F276}" name="PARENT (Int)" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{7E83A297-5783-4D8C-B136-8CEDA0A6EBF0}" name="ORDER (Int)" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{2CC8B113-DED3-4FC6-98B0-C528E0A6258C}" name="VALUE (Str)" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{69D924E8-25EF-459B-BFD4-9C59DCCDC98D}" name="DESCRIPTION (Str)" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{BE5EF3EC-5D3F-477E-B790-71B1D6DFB9BF}" name="PROPERTY (Str)" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40FD3D92-5D29-4CAD-A9B4-38571720942A}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="2" dataDxfId="14" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{40FD3D92-5D29-4CAD-A9B4-38571720942A}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <autoFilter ref="A1:G9" xr:uid="{DEC6742A-28E3-48E5-9798-005AB036BAF5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E33BD9B6-D7CD-499B-BE28-7F2DE4EAE1AA}" name="ANCESTOR (Int)" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{C828DF4B-AA9B-4EDC-8BB6-3757493CFFD0}" name="CODE (Int)" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{19232AC4-AF03-4533-80D6-586E98D4722E}" name="PARENT (Int)" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{B5D6578C-E97C-4852-AB6F-394212204414}" name="ORDER (Int)" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{ED904B07-4BA5-46E7-B441-931AC832E216}" name="VALUE (Str)" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{B95C83CE-9636-47DD-9372-9D3236954616}" name="DESCRIPTION (Str)" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{46CCFB93-C3BA-4C0F-A010-B16BACB560B0}" name="PROPERTY (Str)" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{E33BD9B6-D7CD-499B-BE28-7F2DE4EAE1AA}" name="ANCESTOR (Int)" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C828DF4B-AA9B-4EDC-8BB6-3757493CFFD0}" name="CODE (Int)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{19232AC4-AF03-4533-80D6-586E98D4722E}" name="PARENT (Int)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{B5D6578C-E97C-4852-AB6F-394212204414}" name="ORDER (Int)" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{ED904B07-4BA5-46E7-B441-931AC832E216}" name="VALUE (Str)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{B95C83CE-9636-47DD-9372-9D3236954616}" name="DESCRIPTION (Str)" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{46CCFB93-C3BA-4C0F-A010-B16BACB560B0}" name="PROPERTY (Str)" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{44B5BFE9-FFBF-46ED-8949-971A7FE470CF}" name="Table4" displayName="Table4" ref="A1:G17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{44B5BFE9-FFBF-46ED-8949-971A7FE470CF}" name="Table4" displayName="Table4" ref="A1:G17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A1:G17" xr:uid="{4D6EE1AB-D4C4-4AEE-BD8A-5915A593D148}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E82ABF15-1B06-47BF-8642-398D4B1CB6B5}" name="ANCESTOR (Int)" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{036386CE-3DDE-479E-ABE7-C8A7D555C428}" name="CODE (Int)" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{3C21BA2D-C2D8-450F-981E-5664286F2B0C}" name="PARENT (Int)" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{5878664F-1ADD-4F85-888C-CE9C1A592662}" name="ORDER (Int)" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{E82ABF15-1B06-47BF-8642-398D4B1CB6B5}" name="ANCESTOR (Int)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{036386CE-3DDE-479E-ABE7-C8A7D555C428}" name="CODE (Int)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3C21BA2D-C2D8-450F-981E-5664286F2B0C}" name="PARENT (Int)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5878664F-1ADD-4F85-888C-CE9C1A592662}" name="ORDER (Int)" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{CA55D0C6-8624-4F06-81C6-F9E879B28398}" name="VALUE (Str)"/>
-    <tableColumn id="6" xr3:uid="{046ECAAD-770C-4922-9740-48635945AD36}" name="DESCRIPTION (Str)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{17D3C655-CC02-4AFD-9420-BCCF24FAB0E7}" name="PROPERTY (Str)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{046ECAAD-770C-4922-9740-48635945AD36}" name="DESCRIPTION (Str)" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{17D3C655-CC02-4AFD-9420-BCCF24FAB0E7}" name="PROPERTY (Str)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -869,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF9F932-BAC6-4351-8274-A366FC863927}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" activeCellId="1" sqref="B39 F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="20.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -913,25 +910,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -956,9 +953,6 @@
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
@@ -970,8 +964,16 @@
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -987,35 +989,35 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -1027,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1038,7 +1040,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1049,7 +1051,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1060,7 +1062,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1071,7 +1073,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,7 +1084,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,7 +1095,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1104,7 +1106,7 @@
         <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1119,11 +1121,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85E5C39-049F-4D68-ACF8-90356F983BAE}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="20.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
@@ -1131,25 +1133,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1157,13 +1159,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,13 +1173,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,13 +1187,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1199,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>40</v>
@@ -1213,13 +1215,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1227,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>60</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1241,13 +1243,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>70</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1255,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4">
         <v>80</v>
@@ -1269,14 +1271,14 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1286,14 +1288,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>20</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1303,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>30</v>
@@ -1320,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>40</v>
@@ -1337,14 +1339,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>50</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1354,14 +1356,14 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>60</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -1371,14 +1373,14 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3">
         <v>70</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1388,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9">
         <v>80</v>
